--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H2">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I2">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J2">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>177.393692</v>
+        <v>206.962273</v>
       </c>
       <c r="N2">
-        <v>354.787384</v>
+        <v>413.924546</v>
       </c>
       <c r="O2">
-        <v>0.3222007289445884</v>
+        <v>0.4441605728295625</v>
       </c>
       <c r="P2">
-        <v>0.2602189068033273</v>
+        <v>0.3933861531316981</v>
       </c>
       <c r="Q2">
-        <v>59.878619856678</v>
+        <v>540.9310840719099</v>
       </c>
       <c r="R2">
-        <v>239.514479426712</v>
+        <v>2163.72433628764</v>
       </c>
       <c r="S2">
-        <v>0.002499343945341968</v>
+        <v>0.05449582753242511</v>
       </c>
       <c r="T2">
-        <v>0.0018300160685906</v>
+        <v>0.03844300739311026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H3">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I3">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J3">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>290.584656</v>
       </c>
       <c r="O3">
-        <v>0.1759299460383527</v>
+        <v>0.2078740332615136</v>
       </c>
       <c r="P3">
-        <v>0.2131293978540706</v>
+        <v>0.2761662266410695</v>
       </c>
       <c r="Q3">
-        <v>32.695277862168</v>
+        <v>253.16413261584</v>
       </c>
       <c r="R3">
-        <v>196.171667173008</v>
+        <v>1518.98479569504</v>
       </c>
       <c r="S3">
-        <v>0.001364706550713349</v>
+        <v>0.02550489205496418</v>
       </c>
       <c r="T3">
-        <v>0.001498854282163179</v>
+        <v>0.02698788507925887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H4">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I4">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J4">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.703013333333335</v>
+        <v>2.954905666666667</v>
       </c>
       <c r="N4">
-        <v>26.10904</v>
+        <v>8.864717000000001</v>
       </c>
       <c r="O4">
-        <v>0.01580731089363917</v>
+        <v>0.006341506471394363</v>
       </c>
       <c r="P4">
-        <v>0.01914968274769416</v>
+        <v>0.00842486137372285</v>
       </c>
       <c r="Q4">
-        <v>2.93767169012</v>
+        <v>7.723148293796667</v>
       </c>
       <c r="R4">
-        <v>17.62603014072</v>
+        <v>46.33888976278</v>
       </c>
       <c r="S4">
-        <v>0.0001226189242450464</v>
+        <v>0.0007780646552198059</v>
       </c>
       <c r="T4">
-        <v>0.0001346721019129438</v>
+        <v>0.0008233055624800521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H5">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I5">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J5">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>110.893993</v>
+        <v>138.7166745</v>
       </c>
       <c r="N5">
-        <v>221.787986</v>
+        <v>277.433349</v>
       </c>
       <c r="O5">
-        <v>0.2014171134122181</v>
+        <v>0.2976990768116079</v>
       </c>
       <c r="P5">
-        <v>0.1626704608499598</v>
+        <v>0.263667470238776</v>
       </c>
       <c r="Q5">
-        <v>37.43187920817449</v>
+        <v>362.559610640415</v>
       </c>
       <c r="R5">
-        <v>149.727516832698</v>
+        <v>1450.23844256166</v>
       </c>
       <c r="S5">
-        <v>0.00156241310981534</v>
+        <v>0.03652588396834796</v>
       </c>
       <c r="T5">
-        <v>0.001143996648427462</v>
+        <v>0.0257664649022828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H6">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I6">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J6">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>143.440038</v>
+        <v>16.20798866666667</v>
       </c>
       <c r="N6">
-        <v>430.320114</v>
+        <v>48.623966</v>
       </c>
       <c r="O6">
-        <v>0.2605305988188095</v>
+        <v>0.03478387353525887</v>
       </c>
       <c r="P6">
-        <v>0.3156184089132187</v>
+        <v>0.04621130860585997</v>
       </c>
       <c r="Q6">
-        <v>48.41768278676699</v>
+        <v>42.36233373840666</v>
       </c>
       <c r="R6">
-        <v>290.506096720602</v>
+        <v>254.17400243044</v>
       </c>
       <c r="S6">
-        <v>0.002020962450541486</v>
+        <v>0.004267771812818114</v>
       </c>
       <c r="T6">
-        <v>0.00221961873158866</v>
+        <v>0.004515923258197743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H7">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I7">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J7">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.276584</v>
+        <v>4.259336</v>
       </c>
       <c r="N7">
-        <v>39.829752</v>
+        <v>12.778008</v>
       </c>
       <c r="O7">
-        <v>0.02411430189239231</v>
+        <v>0.009140937090662786</v>
       </c>
       <c r="P7">
-        <v>0.02921314283172943</v>
+        <v>0.01214398000887356</v>
       </c>
       <c r="Q7">
-        <v>4.481464461156</v>
+        <v>11.13249872312</v>
       </c>
       <c r="R7">
-        <v>26.888786766936</v>
+        <v>66.79499233871999</v>
       </c>
       <c r="S7">
-        <v>0.0001870571014172479</v>
+        <v>0.001121537933914407</v>
       </c>
       <c r="T7">
-        <v>0.0002054444139084117</v>
+        <v>0.001186750244121116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H8">
         <v>22.560501</v>
       </c>
       <c r="I8">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J8">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>177.393692</v>
+        <v>206.962273</v>
       </c>
       <c r="N8">
-        <v>354.787384</v>
+        <v>413.924546</v>
       </c>
       <c r="O8">
-        <v>0.3222007289445884</v>
+        <v>0.4441605728295625</v>
       </c>
       <c r="P8">
-        <v>0.2602189068033273</v>
+        <v>0.3933861531316981</v>
       </c>
       <c r="Q8">
-        <v>1334.030188586564</v>
+        <v>1556.390855659591</v>
       </c>
       <c r="R8">
-        <v>8004.181131519385</v>
+        <v>9338.345133957546</v>
       </c>
       <c r="S8">
-        <v>0.05568265071452517</v>
+        <v>0.1567978068566555</v>
       </c>
       <c r="T8">
-        <v>0.06115613603674503</v>
+        <v>0.1659148834273783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H9">
         <v>22.560501</v>
       </c>
       <c r="I9">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J9">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>290.584656</v>
       </c>
       <c r="O9">
-        <v>0.1759299460383527</v>
+        <v>0.2078740332615136</v>
       </c>
       <c r="P9">
-        <v>0.2131293978540706</v>
+        <v>0.2761662266410695</v>
       </c>
       <c r="Q9">
-        <v>728.415046919184</v>
+        <v>728.4150469191841</v>
       </c>
       <c r="R9">
-        <v>6555.735422272655</v>
+        <v>6555.735422272656</v>
       </c>
       <c r="S9">
-        <v>0.03040416999541797</v>
+        <v>0.07338380421794022</v>
       </c>
       <c r="T9">
-        <v>0.05008925219428535</v>
+        <v>0.1164761060727836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H10">
         <v>22.560501</v>
       </c>
       <c r="I10">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J10">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.703013333333335</v>
+        <v>2.954905666666667</v>
       </c>
       <c r="N10">
-        <v>26.10904</v>
+        <v>8.864717000000001</v>
       </c>
       <c r="O10">
-        <v>0.01580731089363917</v>
+        <v>0.006341506471394363</v>
       </c>
       <c r="P10">
-        <v>0.01914968274769416</v>
+        <v>0.00842486137372285</v>
       </c>
       <c r="Q10">
-        <v>65.44811366989335</v>
+        <v>22.22138408257967</v>
       </c>
       <c r="R10">
-        <v>589.03302302904</v>
+        <v>199.992456743217</v>
       </c>
       <c r="S10">
-        <v>0.00273181558002556</v>
+        <v>0.002238682061641432</v>
       </c>
       <c r="T10">
-        <v>0.00450052080213996</v>
+        <v>0.003553276803429044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H11">
         <v>22.560501</v>
       </c>
       <c r="I11">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J11">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>110.893993</v>
+        <v>138.7166745</v>
       </c>
       <c r="N11">
-        <v>221.787986</v>
+        <v>277.433349</v>
       </c>
       <c r="O11">
-        <v>0.2014171134122181</v>
+        <v>0.2976990768116079</v>
       </c>
       <c r="P11">
-        <v>0.1626704608499598</v>
+        <v>0.263667470238776</v>
       </c>
       <c r="Q11">
-        <v>833.9413466568309</v>
+        <v>1043.172557924642</v>
       </c>
       <c r="R11">
-        <v>5003.648079940986</v>
+        <v>6259.035347547851</v>
       </c>
       <c r="S11">
-        <v>0.03480885599110254</v>
+        <v>0.1050938899190026</v>
       </c>
       <c r="T11">
-        <v>0.03823049199272458</v>
+        <v>0.1112046197864336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H12">
         <v>22.560501</v>
       </c>
       <c r="I12">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J12">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.440038</v>
+        <v>16.20798866666667</v>
       </c>
       <c r="N12">
-        <v>430.320114</v>
+        <v>48.623966</v>
       </c>
       <c r="O12">
-        <v>0.2605305988188095</v>
+        <v>0.03478387353525887</v>
       </c>
       <c r="P12">
-        <v>0.3156184089132187</v>
+        <v>0.04621130860585997</v>
       </c>
       <c r="Q12">
-        <v>1078.693040246346</v>
+        <v>121.8867815074407</v>
       </c>
       <c r="R12">
-        <v>9708.237362217113</v>
+        <v>1096.981033566966</v>
       </c>
       <c r="S12">
-        <v>0.04502483399709735</v>
+        <v>0.01227942194320054</v>
       </c>
       <c r="T12">
-        <v>0.07417601813916706</v>
+        <v>0.01949012139682773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H13">
         <v>22.560501</v>
       </c>
       <c r="I13">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J13">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.276584</v>
+        <v>4.259336</v>
       </c>
       <c r="N13">
-        <v>39.829752</v>
+        <v>12.778008</v>
       </c>
       <c r="O13">
-        <v>0.02411430189239231</v>
+        <v>0.009140937090662786</v>
       </c>
       <c r="P13">
-        <v>0.02921314283172943</v>
+        <v>0.01214398000887356</v>
       </c>
       <c r="Q13">
-        <v>99.842128869528</v>
+        <v>32.030918029112</v>
       </c>
       <c r="R13">
-        <v>898.579159825752</v>
+        <v>288.278262262008</v>
       </c>
       <c r="S13">
-        <v>0.004167427720902575</v>
+        <v>0.003226938580567289</v>
       </c>
       <c r="T13">
-        <v>0.006865615412136011</v>
+        <v>0.005121855488497913</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H14">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I14">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J14">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>177.393692</v>
+        <v>206.962273</v>
       </c>
       <c r="N14">
-        <v>354.787384</v>
+        <v>413.924546</v>
       </c>
       <c r="O14">
-        <v>0.3222007289445884</v>
+        <v>0.4441605728295625</v>
       </c>
       <c r="P14">
-        <v>0.2602189068033273</v>
+        <v>0.3933861531316981</v>
       </c>
       <c r="Q14">
-        <v>16.26120669579467</v>
+        <v>26.543118474523</v>
       </c>
       <c r="R14">
-        <v>97.567240174768</v>
+        <v>159.258710847138</v>
       </c>
       <c r="S14">
-        <v>0.0006787455789122701</v>
+        <v>0.002674072999598669</v>
       </c>
       <c r="T14">
-        <v>0.0007454648158024928</v>
+        <v>0.002829558135403733</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H15">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I15">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J15">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>290.584656</v>
       </c>
       <c r="O15">
-        <v>0.1759299460383527</v>
+        <v>0.2078740332615136</v>
       </c>
       <c r="P15">
-        <v>0.2131293978540706</v>
+        <v>0.2761662266410695</v>
       </c>
       <c r="Q15">
-        <v>8.879040174367999</v>
+        <v>12.422590905552</v>
       </c>
       <c r="R15">
-        <v>79.91136156931199</v>
+        <v>111.803318149968</v>
       </c>
       <c r="S15">
-        <v>0.000370612671991634</v>
+        <v>0.001251507616088187</v>
       </c>
       <c r="T15">
-        <v>0.0006105646559858248</v>
+        <v>0.001986415604858319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H16">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I16">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J16">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.703013333333335</v>
+        <v>2.954905666666667</v>
       </c>
       <c r="N16">
-        <v>26.10904</v>
+        <v>8.864717000000001</v>
       </c>
       <c r="O16">
-        <v>0.01580731089363917</v>
+        <v>0.006341506471394363</v>
       </c>
       <c r="P16">
-        <v>0.01914968274769416</v>
+        <v>0.00842486137372285</v>
       </c>
       <c r="Q16">
-        <v>0.7977820242311111</v>
+        <v>0.3789696066556667</v>
       </c>
       <c r="R16">
-        <v>7.18003821808</v>
+        <v>3.410726459901</v>
       </c>
       <c r="S16">
-        <v>3.329955962140153E-05</v>
+        <v>3.817910068853196E-05</v>
       </c>
       <c r="T16">
-        <v>5.485925253300416E-05</v>
+        <v>6.059856161659419E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H17">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I17">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J17">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>110.893993</v>
+        <v>138.7166745</v>
       </c>
       <c r="N17">
-        <v>221.787986</v>
+        <v>277.433349</v>
       </c>
       <c r="O17">
-        <v>0.2014171134122181</v>
+        <v>0.2976990768116079</v>
       </c>
       <c r="P17">
-        <v>0.1626704608499598</v>
+        <v>0.263667470238776</v>
       </c>
       <c r="Q17">
-        <v>10.16535662099533</v>
+        <v>17.7905522212995</v>
       </c>
       <c r="R17">
-        <v>60.99213972597199</v>
+        <v>106.743313327797</v>
       </c>
       <c r="S17">
-        <v>0.0004243037428674647</v>
+        <v>0.001792300154504813</v>
       </c>
       <c r="T17">
-        <v>0.0004660118921553756</v>
+        <v>0.001896514225313068</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H18">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I18">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J18">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>143.440038</v>
+        <v>16.20798866666667</v>
       </c>
       <c r="N18">
-        <v>430.320114</v>
+        <v>48.623966</v>
       </c>
       <c r="O18">
-        <v>0.2605305988188095</v>
+        <v>0.03478387353525887</v>
       </c>
       <c r="P18">
-        <v>0.3156184089132187</v>
+        <v>0.04621130860585997</v>
       </c>
       <c r="Q18">
-        <v>13.148765776692</v>
+        <v>2.078690754488667</v>
       </c>
       <c r="R18">
-        <v>118.338891990228</v>
+        <v>18.708216790398</v>
       </c>
       <c r="S18">
-        <v>0.0005488317568333152</v>
+        <v>0.0002094166450874579</v>
       </c>
       <c r="T18">
-        <v>0.0009041711148306156</v>
+        <v>0.0003323899002860645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H19">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I19">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J19">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.276584</v>
+        <v>4.259336</v>
       </c>
       <c r="N19">
-        <v>39.829752</v>
+        <v>12.778008</v>
       </c>
       <c r="O19">
-        <v>0.02411430189239231</v>
+        <v>0.009140937090662786</v>
       </c>
       <c r="P19">
-        <v>0.02921314283172943</v>
+        <v>0.01214398000887356</v>
       </c>
       <c r="Q19">
-        <v>1.217029051056</v>
+        <v>0.546264101336</v>
       </c>
       <c r="R19">
-        <v>10.953261459504</v>
+        <v>4.916376912024</v>
       </c>
       <c r="S19">
-        <v>5.079900300545852E-05</v>
+        <v>5.503309965009226E-05</v>
       </c>
       <c r="T19">
-        <v>8.368865432413169E-05</v>
+        <v>8.734953469189525E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H20">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I20">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J20">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>177.393692</v>
+        <v>206.962273</v>
       </c>
       <c r="N20">
-        <v>354.787384</v>
+        <v>413.924546</v>
       </c>
       <c r="O20">
-        <v>0.3222007289445884</v>
+        <v>0.4441605728295625</v>
       </c>
       <c r="P20">
-        <v>0.2602189068033273</v>
+        <v>0.3933861531316981</v>
       </c>
       <c r="Q20">
-        <v>6068.854623624241</v>
+        <v>1614.753492277635</v>
       </c>
       <c r="R20">
-        <v>24275.41849449696</v>
+        <v>6459.013969110541</v>
       </c>
       <c r="S20">
-        <v>0.2533150412454641</v>
+        <v>0.1626775210626369</v>
       </c>
       <c r="T20">
-        <v>0.1854769115546692</v>
+        <v>0.1147576507794614</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H21">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I21">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J21">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>290.584656</v>
       </c>
       <c r="O21">
-        <v>0.1759299460383527</v>
+        <v>0.2078740332615136</v>
       </c>
       <c r="P21">
-        <v>0.2131293978540706</v>
+        <v>0.2761662266410695</v>
       </c>
       <c r="Q21">
-        <v>3313.751865013441</v>
+        <v>755.729665567752</v>
       </c>
       <c r="R21">
-        <v>19882.51119008064</v>
+        <v>4534.377993406511</v>
       </c>
       <c r="S21">
-        <v>0.1383165757662886</v>
+        <v>0.07613560161102262</v>
       </c>
       <c r="T21">
-        <v>0.1519127989625921</v>
+        <v>0.08056253922935494</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H22">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I22">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J22">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.703013333333335</v>
+        <v>2.954905666666667</v>
       </c>
       <c r="N22">
-        <v>26.10904</v>
+        <v>8.864717000000001</v>
       </c>
       <c r="O22">
-        <v>0.01580731089363917</v>
+        <v>0.006341506471394363</v>
       </c>
       <c r="P22">
-        <v>0.01914968274769416</v>
+        <v>0.00842486137372285</v>
       </c>
       <c r="Q22">
-        <v>297.7407038096001</v>
+        <v>23.05465713840983</v>
       </c>
       <c r="R22">
-        <v>1786.4442228576</v>
+        <v>138.327942830459</v>
       </c>
       <c r="S22">
-        <v>0.01242774845394817</v>
+        <v>0.002322629732749756</v>
       </c>
       <c r="T22">
-        <v>0.01364936951325564</v>
+        <v>0.002457680047186076</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H23">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I23">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J23">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>110.893993</v>
+        <v>138.7166745</v>
       </c>
       <c r="N23">
-        <v>221.787986</v>
+        <v>277.433349</v>
       </c>
       <c r="O23">
-        <v>0.2014171134122181</v>
+        <v>0.2976990768116079</v>
       </c>
       <c r="P23">
-        <v>0.1626704608499598</v>
+        <v>0.263667470238776</v>
       </c>
       <c r="Q23">
-        <v>3793.81879120146</v>
+        <v>1082.290174625281</v>
       </c>
       <c r="R23">
-        <v>15175.27516480584</v>
+        <v>4329.160698501123</v>
       </c>
       <c r="S23">
-        <v>0.1583546522650265</v>
+        <v>0.1090347743606039</v>
       </c>
       <c r="T23">
-        <v>0.1159470503134074</v>
+        <v>0.07691643244350736</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H24">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I24">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J24">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>143.440038</v>
+        <v>16.20798866666667</v>
       </c>
       <c r="N24">
-        <v>430.320114</v>
+        <v>48.623966</v>
       </c>
       <c r="O24">
-        <v>0.2605305988188095</v>
+        <v>0.03478387353525887</v>
       </c>
       <c r="P24">
-        <v>0.3156184089132187</v>
+        <v>0.04621130860585997</v>
       </c>
       <c r="Q24">
-        <v>4907.25869682636</v>
+        <v>126.4573775834803</v>
       </c>
       <c r="R24">
-        <v>29443.55218095816</v>
+        <v>758.744265500882</v>
       </c>
       <c r="S24">
-        <v>0.2048298264304738</v>
+        <v>0.01273988432522022</v>
       </c>
       <c r="T24">
-        <v>0.2249641597305871</v>
+        <v>0.0134806504317345</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H25">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I25">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J25">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.276584</v>
+        <v>4.259336</v>
       </c>
       <c r="N25">
-        <v>39.829752</v>
+        <v>12.778008</v>
       </c>
       <c r="O25">
-        <v>0.02411430189239231</v>
+        <v>0.009140937090662786</v>
       </c>
       <c r="P25">
-        <v>0.02921314283172943</v>
+        <v>0.01214398000887356</v>
       </c>
       <c r="Q25">
-        <v>454.20813607248</v>
+        <v>33.232035873436</v>
       </c>
       <c r="R25">
-        <v>2725.24881643488</v>
+        <v>199.392215240616</v>
       </c>
       <c r="S25">
-        <v>0.01895872612854164</v>
+        <v>0.003347944588204478</v>
       </c>
       <c r="T25">
-        <v>0.02082232830733465</v>
+        <v>0.003542612280164619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H26">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I26">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J26">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>177.393692</v>
+        <v>206.962273</v>
       </c>
       <c r="N26">
-        <v>354.787384</v>
+        <v>413.924546</v>
       </c>
       <c r="O26">
-        <v>0.3222007289445884</v>
+        <v>0.4441605728295625</v>
       </c>
       <c r="P26">
-        <v>0.2602189068033273</v>
+        <v>0.3933861531316981</v>
       </c>
       <c r="Q26">
-        <v>240.1750344044893</v>
+        <v>670.164122276754</v>
       </c>
       <c r="R26">
-        <v>1441.050206426936</v>
+        <v>4020.984733660524</v>
       </c>
       <c r="S26">
-        <v>0.01002494746034486</v>
+        <v>0.06751534437824619</v>
       </c>
       <c r="T26">
-        <v>0.01101037832751996</v>
+        <v>0.07144105339634435</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H27">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I27">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J27">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>290.584656</v>
       </c>
       <c r="O27">
-        <v>0.1759299460383527</v>
+        <v>0.2078740332615136</v>
       </c>
       <c r="P27">
-        <v>0.2131293978540706</v>
+        <v>0.2761662266410695</v>
       </c>
       <c r="Q27">
-        <v>131.141791581136</v>
+        <v>313.6471978080961</v>
       </c>
       <c r="R27">
-        <v>1180.276124230224</v>
+        <v>2822.824780272864</v>
       </c>
       <c r="S27">
-        <v>0.005473881053941091</v>
+        <v>0.03159822776149836</v>
       </c>
       <c r="T27">
-        <v>0.009017927759044111</v>
+        <v>0.05015328065481372</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H28">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I28">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J28">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.703013333333335</v>
+        <v>2.954905666666667</v>
       </c>
       <c r="N28">
-        <v>26.10904</v>
+        <v>8.864717000000001</v>
       </c>
       <c r="O28">
-        <v>0.01580731089363917</v>
+        <v>0.006341506471394363</v>
       </c>
       <c r="P28">
-        <v>0.01914968274769416</v>
+        <v>0.00842486137372285</v>
       </c>
       <c r="Q28">
-        <v>11.78309388112889</v>
+        <v>9.568274129422003</v>
       </c>
       <c r="R28">
-        <v>106.04784493016</v>
+        <v>86.11446716479801</v>
       </c>
       <c r="S28">
-        <v>0.0004918283757989966</v>
+        <v>0.0009639509210948372</v>
       </c>
       <c r="T28">
-        <v>0.000810261077852621</v>
+        <v>0.001530000399011083</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H29">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I29">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J29">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>110.893993</v>
+        <v>138.7166745</v>
       </c>
       <c r="N29">
-        <v>221.787986</v>
+        <v>277.433349</v>
       </c>
       <c r="O29">
-        <v>0.2014171134122181</v>
+        <v>0.2976990768116079</v>
       </c>
       <c r="P29">
-        <v>0.1626704608499598</v>
+        <v>0.263667470238776</v>
       </c>
       <c r="Q29">
-        <v>150.1404490979656</v>
+        <v>449.1781862651011</v>
       </c>
       <c r="R29">
-        <v>900.8426945877939</v>
+        <v>2695.069117590606</v>
       </c>
       <c r="S29">
-        <v>0.006266888303406247</v>
+        <v>0.04525222840914867</v>
       </c>
       <c r="T29">
-        <v>0.006882910003244929</v>
+        <v>0.0478834388812391</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H30">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I30">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J30">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>143.440038</v>
+        <v>16.20798866666667</v>
       </c>
       <c r="N30">
-        <v>430.320114</v>
+        <v>48.623966</v>
       </c>
       <c r="O30">
-        <v>0.2605305988188095</v>
+        <v>0.03478387353525887</v>
       </c>
       <c r="P30">
-        <v>0.3156184089132187</v>
+        <v>0.04621130860585997</v>
       </c>
       <c r="Q30">
-        <v>194.204854035234</v>
+        <v>52.483055685556</v>
       </c>
       <c r="R30">
-        <v>1747.843686317106</v>
+        <v>472.347501170004</v>
       </c>
       <c r="S30">
-        <v>0.008106144183863479</v>
+        <v>0.00528737880893254</v>
       </c>
       <c r="T30">
-        <v>0.01335444119704526</v>
+        <v>0.008392223618813928</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H31">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I31">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J31">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.276584</v>
+        <v>4.259336</v>
       </c>
       <c r="N31">
-        <v>39.829752</v>
+        <v>12.778008</v>
       </c>
       <c r="O31">
-        <v>0.02411430189239231</v>
+        <v>0.009140937090662786</v>
       </c>
       <c r="P31">
-        <v>0.02921314283172943</v>
+        <v>0.01214398000887356</v>
       </c>
       <c r="Q31">
-        <v>17.975295417912</v>
+        <v>13.792147382928</v>
       </c>
       <c r="R31">
-        <v>161.777658761208</v>
+        <v>124.129326446352</v>
       </c>
       <c r="S31">
-        <v>0.0007502919385253854</v>
+        <v>0.001389482888326519</v>
       </c>
       <c r="T31">
-        <v>0.001236066044026229</v>
+        <v>0.002205412461398013</v>
       </c>
     </row>
   </sheetData>
